--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Artn</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H2">
         <v>3.363791</v>
       </c>
       <c r="I2">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J2">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N2">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O2">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P2">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q2">
-        <v>0.14333113451</v>
+        <v>0.1134199311834444</v>
       </c>
       <c r="R2">
-        <v>1.28998021059</v>
+        <v>1.020779380651</v>
       </c>
       <c r="S2">
-        <v>0.003454755267981852</v>
+        <v>0.006850213481026701</v>
       </c>
       <c r="T2">
-        <v>0.004766214967672662</v>
+        <v>0.007672309612589236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H3">
         <v>3.363791</v>
       </c>
       <c r="I3">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J3">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>30.440863</v>
       </c>
       <c r="O3">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P3">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q3">
-        <v>11.37741122129256</v>
+        <v>11.37741122129255</v>
       </c>
       <c r="R3">
         <v>102.396700991633</v>
       </c>
       <c r="S3">
-        <v>0.2742333093722492</v>
+        <v>0.6871604921116287</v>
       </c>
       <c r="T3">
-        <v>0.3783350201034523</v>
+        <v>0.7696268245686003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.121263666666667</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H4">
         <v>3.363791</v>
       </c>
       <c r="I4">
-        <v>0.466133194611753</v>
+        <v>0.8978163344397481</v>
       </c>
       <c r="J4">
-        <v>0.5564217608170712</v>
+        <v>0.9294754023256565</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N4">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O4">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P4">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q4">
-        <v>7.818225077193667</v>
+        <v>3.374437959146833</v>
       </c>
       <c r="R4">
-        <v>46.909350463162</v>
+        <v>20.246627754881</v>
       </c>
       <c r="S4">
-        <v>0.1884451299715219</v>
+        <v>0.2038056288470927</v>
       </c>
       <c r="T4">
-        <v>0.1733205257459462</v>
+        <v>0.152176268144467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H5">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I5">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J5">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N5">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O5">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P5">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q5">
-        <v>0.14968573425</v>
+        <v>0.01290872517166667</v>
       </c>
       <c r="R5">
-        <v>0.8981144055000001</v>
+        <v>0.07745235103000001</v>
       </c>
       <c r="S5">
-        <v>0.003607922177618987</v>
+        <v>0.0007796471243735619</v>
       </c>
       <c r="T5">
-        <v>0.0033183503801339</v>
+        <v>0.000582141869819246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H6">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I6">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J6">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +806,22 @@
         <v>30.440863</v>
       </c>
       <c r="O6">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P6">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q6">
-        <v>11.881829850475</v>
+        <v>1.294903577248333</v>
       </c>
       <c r="R6">
-        <v>71.29097910285</v>
+        <v>7.769421463490001</v>
       </c>
       <c r="S6">
-        <v>0.2863914697216648</v>
+        <v>0.07820817601404979</v>
       </c>
       <c r="T6">
-        <v>0.2634056932583743</v>
+        <v>0.05839597478994502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.170975</v>
+        <v>0.127615</v>
       </c>
       <c r="H7">
-        <v>2.34195</v>
+        <v>0.25523</v>
       </c>
       <c r="I7">
-        <v>0.4867992549719922</v>
+        <v>0.1021836655602519</v>
       </c>
       <c r="J7">
-        <v>0.3873938490071291</v>
+        <v>0.07052459767434344</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N7">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O7">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P7">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q7">
-        <v>8.164846843725002</v>
+        <v>0.3840567682325</v>
       </c>
       <c r="R7">
-        <v>32.65938737490001</v>
+        <v>1.53622707293</v>
       </c>
       <c r="S7">
-        <v>0.1967998630727084</v>
+        <v>0.02319584242182859</v>
       </c>
       <c r="T7">
-        <v>0.1206698053686209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.113219</v>
-      </c>
-      <c r="H8">
-        <v>0.339657</v>
-      </c>
-      <c r="I8">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J8">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.12783</v>
-      </c>
-      <c r="N8">
-        <v>0.38349</v>
-      </c>
-      <c r="O8">
-        <v>0.007411519513986452</v>
-      </c>
-      <c r="P8">
-        <v>0.008565831359064333</v>
-      </c>
-      <c r="Q8">
-        <v>0.01447278477</v>
-      </c>
-      <c r="R8">
-        <v>0.13025506293</v>
-      </c>
-      <c r="S8">
-        <v>0.0003488420683856137</v>
-      </c>
-      <c r="T8">
-        <v>0.0004812660112577724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.113219</v>
-      </c>
-      <c r="H9">
-        <v>0.339657</v>
-      </c>
-      <c r="I9">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J9">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.14695433333333</v>
-      </c>
-      <c r="N9">
-        <v>30.440863</v>
-      </c>
-      <c r="O9">
-        <v>0.5883153410704013</v>
-      </c>
-      <c r="P9">
-        <v>0.6799428899903026</v>
-      </c>
-      <c r="Q9">
-        <v>1.148828022665667</v>
-      </c>
-      <c r="R9">
-        <v>10.339452203991</v>
-      </c>
-      <c r="S9">
-        <v>0.02769056197648726</v>
-      </c>
-      <c r="T9">
-        <v>0.03820217662847612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.113219</v>
-      </c>
-      <c r="H10">
-        <v>0.339657</v>
-      </c>
-      <c r="I10">
-        <v>0.04706755041625482</v>
-      </c>
-      <c r="J10">
-        <v>0.05618439017579985</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.972691</v>
-      </c>
-      <c r="N10">
-        <v>13.945382</v>
-      </c>
-      <c r="O10">
-        <v>0.4042731394156123</v>
-      </c>
-      <c r="P10">
-        <v>0.3114912786506331</v>
-      </c>
-      <c r="Q10">
-        <v>0.7894411023290001</v>
-      </c>
-      <c r="R10">
-        <v>4.736646613974001</v>
-      </c>
-      <c r="S10">
-        <v>0.01902814637138194</v>
-      </c>
-      <c r="T10">
-        <v>0.01750094753606596</v>
+        <v>0.01154648101457918</v>
       </c>
     </row>
   </sheetData>
